--- a/Project_168/TestData/InputData.xlsx
+++ b/Project_168/TestData/InputData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECADDE65-5FCA-41C9-8694-72E9C5DE7F7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3A4FD-37C1-4485-80DC-9166FE7EBD9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="72" windowWidth="14052" windowHeight="8364" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="126">
   <si>
     <t>Application_URL</t>
   </si>
@@ -267,6 +269,141 @@
   </si>
   <si>
     <t>Enter password</t>
+  </si>
+  <si>
+    <t>Arjun1</t>
+  </si>
+  <si>
+    <t>pwd1</t>
+  </si>
+  <si>
+    <t>Arjun2</t>
+  </si>
+  <si>
+    <t>Arjun3</t>
+  </si>
+  <si>
+    <t>Arjun4</t>
+  </si>
+  <si>
+    <t>Arjun5</t>
+  </si>
+  <si>
+    <t>Arjun6</t>
+  </si>
+  <si>
+    <t>Arjun7</t>
+  </si>
+  <si>
+    <t>Arjun8</t>
+  </si>
+  <si>
+    <t>Arjun9</t>
+  </si>
+  <si>
+    <t>Arjun10</t>
+  </si>
+  <si>
+    <t>Arjun11</t>
+  </si>
+  <si>
+    <t>Arjun12</t>
+  </si>
+  <si>
+    <t>Arjun13</t>
+  </si>
+  <si>
+    <t>Arjun14</t>
+  </si>
+  <si>
+    <t>pwd2</t>
+  </si>
+  <si>
+    <t>pwd3</t>
+  </si>
+  <si>
+    <t>pwd4</t>
+  </si>
+  <si>
+    <t>pwd5</t>
+  </si>
+  <si>
+    <t>pwd6</t>
+  </si>
+  <si>
+    <t>pwd7</t>
+  </si>
+  <si>
+    <t>pwd8</t>
+  </si>
+  <si>
+    <t>pwd9</t>
+  </si>
+  <si>
+    <t>pwd10</t>
+  </si>
+  <si>
+    <t>pwd11</t>
+  </si>
+  <si>
+    <t>pwd12</t>
+  </si>
+  <si>
+    <t>pwd13</t>
+  </si>
+  <si>
+    <t>pwd14</t>
+  </si>
+  <si>
+    <t>akbar1</t>
+  </si>
+  <si>
+    <t>anthony 1</t>
+  </si>
+  <si>
+    <t>akbar2</t>
+  </si>
+  <si>
+    <t>anthony 2</t>
+  </si>
+  <si>
+    <t>akbar3</t>
+  </si>
+  <si>
+    <t>anthony 3</t>
+  </si>
+  <si>
+    <t>akbar4</t>
+  </si>
+  <si>
+    <t>anthony 4</t>
+  </si>
+  <si>
+    <t>akbar5</t>
+  </si>
+  <si>
+    <t>anthony 5</t>
+  </si>
+  <si>
+    <t>akbar6</t>
+  </si>
+  <si>
+    <t>anthony 6</t>
+  </si>
+  <si>
+    <t>akbar7</t>
+  </si>
+  <si>
+    <t>anthony 7</t>
+  </si>
+  <si>
+    <t>akbar8</t>
+  </si>
+  <si>
+    <t>anthony 8</t>
+  </si>
+  <si>
+    <t>9999980989</t>
   </si>
 </sst>
 </file>
@@ -396,7 +533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -443,6 +580,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -731,16 +869,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3046875" customWidth="1"/>
-    <col min="2" max="2" width="23.15234375" customWidth="1"/>
-    <col min="3" max="3" width="24.61328125" customWidth="1"/>
-    <col min="4" max="4" width="28.3828125" customWidth="1"/>
-    <col min="5" max="5" width="30.69140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -774,7 +912,7 @@
         <v>9652680806</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -795,19 +933,19 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.53515625" customWidth="1"/>
-    <col min="2" max="2" width="24.84375" customWidth="1"/>
-    <col min="3" max="3" width="26.53515625" customWidth="1"/>
-    <col min="4" max="4" width="29.15234375" customWidth="1"/>
-    <col min="5" max="5" width="23.69140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="18.15234375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -821,7 +959,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -833,7 +971,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -845,7 +983,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -857,7 +995,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="8"/>
@@ -867,7 +1005,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -893,7 +1031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>22</v>
       </c>
@@ -936,15 +1074,15 @@
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.69140625" customWidth="1"/>
-    <col min="2" max="2" width="28.765625" customWidth="1"/>
-    <col min="3" max="3" width="17.23046875" customWidth="1"/>
-    <col min="4" max="4" width="14.921875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -952,7 +1090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -960,7 +1098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -968,7 +1106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -976,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>37</v>
       </c>
@@ -984,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -992,7 +1130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1146,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -1016,7 +1154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -1024,7 +1162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -1032,7 +1170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -1040,7 +1178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -1048,7 +1186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -1073,15 +1211,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.765625" customWidth="1"/>
-    <col min="2" max="2" width="22.765625" customWidth="1"/>
-    <col min="3" max="3" width="18.3828125" customWidth="1"/>
-    <col min="4" max="4" width="23.84375" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
@@ -1113,7 +1251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>37</v>
       </c>
@@ -1127,7 +1265,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -1141,7 +1279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>41</v>
       </c>
@@ -1169,7 +1307,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>42</v>
       </c>
@@ -1183,7 +1321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -1197,7 +1335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
@@ -1211,7 +1349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
@@ -1225,7 +1363,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -1239,7 +1377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -1265,23 +1403,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CA44E9-BB6B-4BD9-A10A-3FBB363C5158}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.4609375" customWidth="1"/>
-    <col min="2" max="2" width="26.4609375" customWidth="1"/>
-    <col min="3" max="3" width="21.15234375" customWidth="1"/>
-    <col min="4" max="4" width="22.84375" customWidth="1"/>
-    <col min="5" max="5" width="21.84375" customWidth="1"/>
-    <col min="6" max="6" width="34.69140625" customWidth="1"/>
-    <col min="7" max="7" width="15.4609375" customWidth="1"/>
-    <col min="8" max="8" width="20.3046875" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
@@ -1295,7 +1433,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1445,7 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1457,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1331,7 +1469,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="18"/>
@@ -1341,7 +1479,7 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>66</v>
       </c>
@@ -1393,7 +1531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>69</v>
       </c>
@@ -1419,7 +1557,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>72</v>
       </c>
@@ -1443,7 +1581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>74</v>
       </c>
@@ -1469,7 +1607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="47.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="47.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>76</v>
       </c>
@@ -1495,7 +1633,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>78</v>
       </c>
@@ -1531,4 +1669,242 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED37A0B-6763-4197-B518-8A42C8DA435E}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0B7FD9-12BE-45D5-B703-218DD062E3F1}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>